--- a/public/template/9. Satuan 1 Header.xlsx
+++ b/public/template/9. Satuan 1 Header.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/sesendokneo/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88B966F4-F780-184F-9F34-A77858BEAF42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4E8E68-1B77-0044-BB7C-425D5CF6AF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="21040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Satuan Import - Tabel" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="531">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="535">
   <si>
     <t>item</t>
   </si>
@@ -721,9 +721,6 @@
     <t>M1</t>
   </si>
   <si>
-    <t>M2</t>
-  </si>
-  <si>
     <t>M2 Kedalaman S.D 1 M</t>
   </si>
   <si>
@@ -739,9 +736,6 @@
     <t>M3</t>
   </si>
   <si>
-    <t>M3"</t>
-  </si>
-  <si>
     <t>Macam</t>
   </si>
   <si>
@@ -754,9 +748,6 @@
     <t>Menit</t>
   </si>
   <si>
-    <t>Meter</t>
-  </si>
-  <si>
     <t>Minggu</t>
   </si>
   <si>
@@ -1613,6 +1604,27 @@
   </si>
   <si>
     <t>Value</t>
+  </si>
+  <si>
+    <t>meter lari</t>
+  </si>
+  <si>
+    <t>meter persegi</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>lusin</t>
+  </si>
+  <si>
+    <t>mili liter</t>
+  </si>
+  <si>
+    <t>milimeter</t>
+  </si>
+  <si>
+    <t>meter kubik</t>
   </si>
 </sst>
 </file>
@@ -1675,9 +1687,9 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EA32035-E7EC-A245-B4F3-05360C1ED878}" name="Tabel1" displayName="Tabel1" ref="A1:D459" totalsRowShown="0" headerRowDxfId="0">
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D459">
-    <sortCondition ref="A1:A459"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8EA32035-E7EC-A245-B4F3-05360C1ED878}" name="Tabel1" displayName="Tabel1" ref="A1:D455" totalsRowShown="0" headerRowDxfId="0">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D455">
+    <sortCondition ref="A1:A455"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{5D981AA9-BFED-2145-8E4D-3E2FCAAA55E8}" name="Value"/>
@@ -2011,10 +2023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D459"/>
+  <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
+      <selection activeCell="B307" sqref="B307"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2025,7 +2037,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -2050,58 +2062,58 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="B6" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,34 +2142,34 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B13" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B14" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B16" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -2170,10 +2182,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -2221,58 +2233,58 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B24" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B25" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B26" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B27" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B29" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="B30" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -2309,10 +2321,10 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="B35" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -2349,50 +2361,50 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="B40" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="B41" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="B42" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B43" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="B44" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="B45" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -2429,50 +2441,50 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B50" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="B51" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="B52" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="B53" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="B54" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="B55" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2520,10 +2532,10 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B61" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2579,10 +2591,10 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="B68" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2614,50 +2626,50 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B72" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B73" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="B74" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B75" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B76" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B77" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2750,10 +2762,10 @@
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="B89" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.2">
@@ -2774,18 +2786,18 @@
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B92" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B93" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.2">
@@ -2865,10 +2877,10 @@
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B103" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2889,10 +2901,10 @@
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="B106" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.2">
@@ -2905,10 +2917,10 @@
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="B108" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
@@ -2943,7 +2955,7 @@
         <v>195</v>
       </c>
       <c r="B113" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.2">
@@ -2956,10 +2968,10 @@
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="B115" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -3010,10 +3022,10 @@
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="B121" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.2">
@@ -3085,18 +3097,18 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B130" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B131" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -3109,18 +3121,18 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="B133" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="B134" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -3141,18 +3153,18 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B137" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B138" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -3173,18 +3185,18 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B141" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="B142" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -3205,18 +3217,18 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B145" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B146" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -3245,34 +3257,34 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B150" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B151" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B152" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B153" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -3301,10 +3313,10 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B157" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -3333,18 +3345,18 @@
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B161" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B162" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
@@ -3432,18 +3444,18 @@
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B173" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B174" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.2">
@@ -3456,50 +3468,50 @@
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="B176" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="B177" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="B178" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="B179" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="B180" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B181" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -3512,10 +3524,10 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="B183" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -3528,130 +3540,130 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="B185" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="B186" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="B187" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="B188" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="B189" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="B190" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="B191" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="B192" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="B193" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B194" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B195" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="B196" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="B197" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="B198" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="B199" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="B200" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3664,10 +3676,10 @@
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B202" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.2">
@@ -3680,18 +3692,18 @@
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B204" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B205" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
@@ -3731,10 +3743,10 @@
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B210" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.2">
@@ -3755,10 +3767,10 @@
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="B213" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.2">
@@ -3771,18 +3783,18 @@
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="B215" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B216" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.2">
@@ -3792,6 +3804,9 @@
       <c r="B217" t="s">
         <v>226</v>
       </c>
+      <c r="D217" t="s">
+        <v>531</v>
+      </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
@@ -3816,6 +3831,9 @@
       <c r="B220" t="s">
         <v>229</v>
       </c>
+      <c r="D220" t="s">
+        <v>530</v>
+      </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
@@ -3824,6 +3842,9 @@
       <c r="B221" t="s">
         <v>230</v>
       </c>
+      <c r="D221" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
@@ -3851,16 +3872,22 @@
       <c r="B224" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D224" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>86</v>
       </c>
       <c r="B225" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D225" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>233</v>
       </c>
@@ -3868,7 +3895,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>234</v>
       </c>
@@ -3876,7 +3903,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>235</v>
       </c>
@@ -3884,7 +3911,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>236</v>
       </c>
@@ -3892,63 +3919,66 @@
         <v>236</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
+        <v>100</v>
+      </c>
+      <c r="B230" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
         <v>237</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B231" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>100</v>
-      </c>
-      <c r="B231" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D231" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
+        <v>403</v>
+      </c>
+      <c r="B232" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>112</v>
+      </c>
+      <c r="B233" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
         <v>238</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B234" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>100</v>
-      </c>
-      <c r="B233" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>404</v>
+      </c>
+      <c r="B235" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
         <v>239</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B236" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>406</v>
-      </c>
-      <c r="B235" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>112</v>
-      </c>
-      <c r="B236" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>240</v>
       </c>
@@ -3956,270 +3986,276 @@
         <v>240</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
-        <v>407</v>
+        <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>241</v>
+        <v>68</v>
       </c>
       <c r="B239" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+      <c r="D239" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="B240" t="s">
-        <v>242</v>
+        <v>80</v>
+      </c>
+      <c r="D240" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B241" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="B242" t="s">
-        <v>68</v>
+        <v>243</v>
       </c>
       <c r="D242" t="s">
-        <v>69</v>
+        <v>532</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="B243" t="s">
-        <v>244</v>
+        <v>57</v>
+      </c>
+      <c r="D243" t="s">
+        <v>533</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B244" t="s">
-        <v>80</v>
-      </c>
-      <c r="D244" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="B245" t="s">
-        <v>245</v>
+        <v>97</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B246" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>57</v>
+        <v>524</v>
       </c>
       <c r="B247" t="s">
-        <v>57</v>
+        <v>524</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
-        <v>82</v>
+        <v>132</v>
       </c>
       <c r="B248" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="B249" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>247</v>
+        <v>405</v>
       </c>
       <c r="B250" t="s">
-        <v>247</v>
+        <v>405</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
-        <v>527</v>
+        <v>350</v>
       </c>
       <c r="B251" t="s">
-        <v>527</v>
+        <v>350</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
-        <v>132</v>
+        <v>20</v>
       </c>
       <c r="B252" t="s">
-        <v>133</v>
+        <v>21</v>
+      </c>
+      <c r="C252" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
-        <v>120</v>
+        <v>21</v>
       </c>
       <c r="B253" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B254" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
       <c r="B255" t="s">
-        <v>353</v>
+        <v>407</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B256" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C256" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="D256" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B257" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
-        <v>409</v>
+        <v>486</v>
       </c>
       <c r="B258" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
-        <v>410</v>
+        <v>465</v>
       </c>
       <c r="B259" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
-        <v>16</v>
+        <v>245</v>
       </c>
       <c r="B260" t="s">
-        <v>17</v>
-      </c>
-      <c r="C260" t="s">
-        <v>18</v>
-      </c>
-      <c r="D260" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
-        <v>17</v>
+        <v>487</v>
       </c>
       <c r="B261" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
-        <v>489</v>
+        <v>408</v>
       </c>
       <c r="B262" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
-        <v>468</v>
+        <v>246</v>
       </c>
       <c r="B263" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
+        <v>247</v>
+      </c>
+      <c r="B264" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
         <v>248</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B265" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A265" t="s">
-        <v>490</v>
-      </c>
-      <c r="B265" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>411</v>
+        <v>249</v>
       </c>
       <c r="B266" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B267" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>250</v>
+        <v>462</v>
       </c>
       <c r="B268" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>251</v>
       </c>
@@ -4227,7 +4263,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>252</v>
       </c>
@@ -4235,7 +4271,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>253</v>
       </c>
@@ -4243,12 +4279,12 @@
         <v>253</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
       <c r="B272" t="s">
-        <v>465</v>
+        <v>347</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.2">
@@ -4277,34 +4313,34 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>350</v>
+        <v>257</v>
       </c>
       <c r="B276" t="s">
-        <v>350</v>
+        <v>257</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B277" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B278" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
       <c r="B279" t="s">
-        <v>259</v>
+        <v>344</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.2">
@@ -4333,354 +4369,354 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B283" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>263</v>
+        <v>452</v>
       </c>
       <c r="B284" t="s">
-        <v>263</v>
+        <v>452</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B285" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B286" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B287" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>455</v>
+        <v>346</v>
       </c>
       <c r="B288" t="s">
-        <v>455</v>
+        <v>346</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B289" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
       <c r="B290" t="s">
-        <v>267</v>
+        <v>453</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
       <c r="B291" t="s">
-        <v>346</v>
+        <v>466</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
       <c r="B292" t="s">
-        <v>349</v>
+        <v>467</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
-        <v>268</v>
+        <v>457</v>
       </c>
       <c r="B293" t="s">
-        <v>268</v>
+        <v>457</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
-        <v>456</v>
+        <v>266</v>
       </c>
       <c r="B294" t="s">
-        <v>456</v>
+        <v>266</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
       <c r="B295" t="s">
-        <v>469</v>
+        <v>513</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B296" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
-        <v>460</v>
+        <v>122</v>
       </c>
       <c r="B297" t="s">
-        <v>460</v>
+        <v>123</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B298" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
-        <v>516</v>
+        <v>268</v>
       </c>
       <c r="B299" t="s">
-        <v>516</v>
+        <v>268</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
       <c r="B300" t="s">
-        <v>466</v>
+        <v>525</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
       <c r="B301" t="s">
-        <v>123</v>
+        <v>15</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
       <c r="B302" t="s">
-        <v>270</v>
+        <v>308</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B303" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
-        <v>528</v>
+        <v>270</v>
       </c>
       <c r="B304" t="s">
-        <v>528</v>
+        <v>270</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
       <c r="B305" t="s">
-        <v>15</v>
+        <v>271</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="B306" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B307" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
-        <v>273</v>
+        <v>409</v>
       </c>
       <c r="B308" t="s">
-        <v>273</v>
+        <v>409</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
-        <v>274</v>
+        <v>410</v>
       </c>
       <c r="B309" t="s">
-        <v>274</v>
+        <v>410</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
       <c r="B310" t="s">
-        <v>275</v>
+        <v>411</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
-        <v>276</v>
+        <v>412</v>
       </c>
       <c r="B311" t="s">
-        <v>276</v>
+        <v>412</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
-        <v>412</v>
+        <v>274</v>
       </c>
       <c r="B312" t="s">
-        <v>412</v>
+        <v>274</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
-        <v>413</v>
+        <v>275</v>
       </c>
       <c r="B313" t="s">
-        <v>413</v>
+        <v>275</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B314" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B315" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
       <c r="B316" t="s">
-        <v>277</v>
+        <v>415</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>278</v>
+        <v>416</v>
       </c>
       <c r="B317" t="s">
-        <v>278</v>
+        <v>416</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B318" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
       <c r="B319" t="s">
-        <v>417</v>
+        <v>276</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
       <c r="B320" t="s">
-        <v>418</v>
+        <v>277</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
       <c r="B321" t="s">
-        <v>419</v>
+        <v>278</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
       <c r="B322" t="s">
-        <v>420</v>
+        <v>279</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B323" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B324" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B325" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
       <c r="B326" t="s">
-        <v>282</v>
+        <v>351</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.2">
@@ -4693,58 +4729,58 @@
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
       <c r="B328" t="s">
-        <v>284</v>
+        <v>353</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
       <c r="B329" t="s">
-        <v>285</v>
+        <v>361</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B330" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B331" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
       <c r="B332" t="s">
-        <v>356</v>
+        <v>285</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="B333" t="s">
-        <v>364</v>
+        <v>286</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B334" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.2">
@@ -4773,18 +4809,18 @@
     </row>
     <row r="338" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
       <c r="B338" t="s">
-        <v>355</v>
+        <v>290</v>
       </c>
     </row>
     <row r="339" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
       <c r="B339" t="s">
-        <v>290</v>
+        <v>359</v>
       </c>
     </row>
     <row r="340" spans="1:4" x14ac:dyDescent="0.2">
@@ -4805,243 +4841,243 @@
     </row>
     <row r="342" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
       <c r="B342" t="s">
-        <v>293</v>
+        <v>357</v>
       </c>
     </row>
     <row r="343" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
       <c r="B343" t="s">
-        <v>362</v>
+        <v>418</v>
       </c>
     </row>
     <row r="344" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
       <c r="B344" t="s">
-        <v>294</v>
+        <v>419</v>
       </c>
     </row>
     <row r="345" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
-        <v>295</v>
+        <v>420</v>
       </c>
       <c r="B345" t="s">
-        <v>295</v>
+        <v>420</v>
       </c>
     </row>
     <row r="346" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
-        <v>360</v>
+        <v>62</v>
       </c>
       <c r="B346" t="s">
-        <v>360</v>
+        <v>63</v>
+      </c>
+      <c r="D346" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="347" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
-        <v>421</v>
+        <v>65</v>
       </c>
       <c r="B347" t="s">
-        <v>421</v>
+        <v>66</v>
+      </c>
+      <c r="D347" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="348" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
-        <v>422</v>
+        <v>59</v>
       </c>
       <c r="B348" t="s">
-        <v>422</v>
+        <v>60</v>
+      </c>
+      <c r="D348" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="349" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B349" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="350" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
-        <v>62</v>
+        <v>422</v>
       </c>
       <c r="B350" t="s">
-        <v>63</v>
-      </c>
-      <c r="D350" t="s">
-        <v>64</v>
+        <v>422</v>
       </c>
     </row>
     <row r="351" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
-        <v>65</v>
+        <v>293</v>
       </c>
       <c r="B351" t="s">
-        <v>66</v>
-      </c>
-      <c r="D351" t="s">
-        <v>67</v>
+        <v>293</v>
       </c>
     </row>
     <row r="352" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="B352" t="s">
-        <v>60</v>
-      </c>
-      <c r="D352" t="s">
-        <v>61</v>
+        <v>294</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B353" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B354" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
       <c r="B355" t="s">
-        <v>296</v>
+        <v>425</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B356" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
-        <v>426</v>
+        <v>14</v>
       </c>
       <c r="B357" t="s">
-        <v>426</v>
+        <v>15</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B358" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
-        <v>428</v>
+        <v>342</v>
       </c>
       <c r="B359" t="s">
-        <v>428</v>
+        <v>342</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B360" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
-        <v>14</v>
+        <v>297</v>
       </c>
       <c r="B361" t="s">
-        <v>15</v>
+        <v>297</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
-        <v>429</v>
+        <v>298</v>
       </c>
       <c r="B362" t="s">
-        <v>429</v>
+        <v>298</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>345</v>
+        <v>118</v>
       </c>
       <c r="B363" t="s">
-        <v>345</v>
+        <v>119</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
       <c r="B364" t="s">
-        <v>299</v>
+        <v>360</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>300</v>
+        <v>516</v>
       </c>
       <c r="B365" t="s">
-        <v>300</v>
+        <v>516</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
       <c r="B366" t="s">
-        <v>301</v>
+        <v>427</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>118</v>
+        <v>299</v>
       </c>
       <c r="B367" t="s">
-        <v>119</v>
+        <v>299</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
       <c r="B368" t="s">
-        <v>363</v>
+        <v>428</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>519</v>
+        <v>300</v>
       </c>
       <c r="B369" t="s">
-        <v>519</v>
+        <v>300</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>430</v>
+        <v>301</v>
       </c>
       <c r="B370" t="s">
-        <v>430</v>
+        <v>301</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.2">
@@ -5054,10 +5090,10 @@
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B372" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.2">
@@ -5070,202 +5106,202 @@
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>304</v>
+        <v>32</v>
       </c>
       <c r="B374" t="s">
-        <v>304</v>
+        <v>33</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>305</v>
+        <v>494</v>
       </c>
       <c r="B375" t="s">
-        <v>305</v>
+        <v>494</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>432</v>
+        <v>304</v>
       </c>
       <c r="B376" t="s">
-        <v>432</v>
+        <v>304</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B377" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>32</v>
+        <v>461</v>
       </c>
       <c r="B378" t="s">
-        <v>33</v>
+        <v>461</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="B379" t="s">
-        <v>497</v>
+        <v>515</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>307</v>
+        <v>464</v>
       </c>
       <c r="B380" t="s">
-        <v>307</v>
+        <v>464</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>308</v>
+        <v>430</v>
       </c>
       <c r="B381" t="s">
-        <v>308</v>
+        <v>430</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
       <c r="B382" t="s">
-        <v>464</v>
+        <v>306</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>518</v>
+        <v>309</v>
       </c>
       <c r="B383" t="s">
-        <v>518</v>
+        <v>309</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
-        <v>467</v>
+        <v>310</v>
       </c>
       <c r="B384" t="s">
-        <v>467</v>
+        <v>310</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="B385" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B386" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
       <c r="B387" t="s">
-        <v>312</v>
+        <v>431</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
       <c r="B388" t="s">
-        <v>313</v>
+        <v>432</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
       <c r="B389" t="s">
-        <v>488</v>
+        <v>433</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
-        <v>314</v>
+        <v>434</v>
       </c>
       <c r="B390" t="s">
-        <v>314</v>
+        <v>434</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="B391" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
-        <v>435</v>
+        <v>312</v>
       </c>
       <c r="B392" t="s">
-        <v>435</v>
+        <v>312</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
-        <v>436</v>
+        <v>313</v>
       </c>
       <c r="B393" t="s">
-        <v>436</v>
+        <v>313</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B394" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
-        <v>438</v>
+        <v>314</v>
       </c>
       <c r="B395" t="s">
-        <v>438</v>
+        <v>314</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
       <c r="B396" t="s">
-        <v>315</v>
+        <v>34</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B397" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
-        <v>439</v>
+        <v>316</v>
       </c>
       <c r="B398" t="s">
-        <v>439</v>
+        <v>316</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.2">
@@ -5278,10 +5314,10 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
-        <v>34</v>
+        <v>437</v>
       </c>
       <c r="B400" t="s">
-        <v>34</v>
+        <v>437</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.2">
@@ -5294,138 +5330,138 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
       <c r="B402" t="s">
-        <v>319</v>
+        <v>349</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
       <c r="B403" t="s">
-        <v>320</v>
+        <v>438</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B404" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="B405" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
       <c r="B406" t="s">
-        <v>352</v>
+        <v>319</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
       <c r="B407" t="s">
-        <v>441</v>
+        <v>320</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
       <c r="B408" t="s">
-        <v>442</v>
+        <v>455</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B409" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>322</v>
+        <v>440</v>
       </c>
       <c r="B410" t="s">
-        <v>322</v>
+        <v>440</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B411" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>458</v>
+        <v>323</v>
       </c>
       <c r="B412" t="s">
-        <v>458</v>
+        <v>323</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>324</v>
+        <v>11</v>
       </c>
       <c r="B413" t="s">
-        <v>324</v>
+        <v>12</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
       <c r="B414" t="s">
-        <v>443</v>
+        <v>12</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B415" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>326</v>
+        <v>441</v>
       </c>
       <c r="B416" t="s">
-        <v>326</v>
+        <v>441</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>11</v>
+        <v>325</v>
       </c>
       <c r="B417" t="s">
-        <v>12</v>
+        <v>325</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
       <c r="B418" t="s">
-        <v>12</v>
+        <v>326</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.2">
@@ -5438,50 +5474,50 @@
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>444</v>
+        <v>307</v>
       </c>
       <c r="B420" t="s">
-        <v>444</v>
+        <v>307</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>328</v>
+        <v>497</v>
       </c>
       <c r="B421" t="s">
-        <v>328</v>
+        <v>497</v>
       </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B422" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B423" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
       <c r="B424" t="s">
-        <v>310</v>
+        <v>117</v>
       </c>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
       <c r="B425" t="s">
-        <v>500</v>
+        <v>330</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.2">
@@ -5494,272 +5530,240 @@
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>332</v>
+        <v>44</v>
       </c>
       <c r="B427" t="s">
-        <v>332</v>
+        <v>45</v>
+      </c>
+      <c r="D427" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="B428" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>333</v>
+        <v>512</v>
       </c>
       <c r="B429" t="s">
-        <v>333</v>
+        <v>512</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
       <c r="B430" t="s">
-        <v>334</v>
+        <v>442</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
-        <v>44</v>
+        <v>13</v>
       </c>
       <c r="B431" t="s">
-        <v>45</v>
-      </c>
-      <c r="D431" t="s">
-        <v>46</v>
+        <v>13</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
-        <v>45</v>
+        <v>332</v>
       </c>
       <c r="B432" t="s">
-        <v>45</v>
+        <v>332</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
-        <v>515</v>
+        <v>333</v>
       </c>
       <c r="B433" t="s">
-        <v>515</v>
+        <v>333</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
       <c r="B434" t="s">
-        <v>445</v>
+        <v>334</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
       <c r="B435" t="s">
-        <v>13</v>
+        <v>335</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
       <c r="B436" t="s">
-        <v>335</v>
+        <v>443</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
       <c r="B437" t="s">
-        <v>336</v>
+        <v>444</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
       <c r="B438" t="s">
-        <v>337</v>
+        <v>445</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
       <c r="B439" t="s">
-        <v>338</v>
+        <v>446</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
-        <v>446</v>
+        <v>50</v>
       </c>
       <c r="B440" t="s">
-        <v>446</v>
+        <v>51</v>
+      </c>
+      <c r="D440" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
-        <v>447</v>
+        <v>23</v>
       </c>
       <c r="B441" t="s">
-        <v>447</v>
+        <v>24</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
       <c r="B442" t="s">
-        <v>448</v>
+        <v>469</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
-        <v>449</v>
+        <v>336</v>
       </c>
       <c r="B443" t="s">
-        <v>449</v>
+        <v>336</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
-        <v>50</v>
+        <v>447</v>
       </c>
       <c r="B444" t="s">
-        <v>51</v>
-      </c>
-      <c r="D444" t="s">
-        <v>52</v>
+        <v>447</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>23</v>
+        <v>337</v>
       </c>
       <c r="B445" t="s">
-        <v>24</v>
+        <v>337</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="B446" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
       <c r="B447" t="s">
-        <v>339</v>
+        <v>449</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
       <c r="B448" t="s">
-        <v>450</v>
+        <v>338</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
       <c r="B449" t="s">
-        <v>340</v>
+        <v>450</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
-        <v>451</v>
+        <v>339</v>
       </c>
       <c r="B450" t="s">
-        <v>451</v>
+        <v>339</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
-        <v>452</v>
+        <v>77</v>
       </c>
       <c r="B451" t="s">
-        <v>452</v>
+        <v>78</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>341</v>
+        <v>94</v>
       </c>
       <c r="B452" t="s">
-        <v>341</v>
+        <v>95</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>453</v>
+        <v>108</v>
       </c>
       <c r="B453" t="s">
-        <v>453</v>
+        <v>109</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
       <c r="B454" t="s">
-        <v>342</v>
+        <v>31</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>77</v>
+        <v>340</v>
       </c>
       <c r="B455" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="456" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A456" t="s">
-        <v>94</v>
-      </c>
-      <c r="B456" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="457" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A457" t="s">
-        <v>108</v>
-      </c>
-      <c r="B457" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A458" t="s">
-        <v>31</v>
-      </c>
-      <c r="B458" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="459" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A459" t="s">
-        <v>343</v>
-      </c>
-      <c r="B459" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>

--- a/public/template/9. Satuan 1 Header.xlsx
+++ b/public/template/9. Satuan 1 Header.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Applications/XAMPP/xamppfiles/htdocs/sesendokneo/public/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA4E8E68-1B77-0044-BB7C-425D5CF6AF12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CF8CE0-D76C-A745-B4DE-DA31C493BF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2025,12 +2025,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D455"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A312" workbookViewId="0">
-      <selection activeCell="B307" sqref="B307"/>
+    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
+      <selection activeCell="G277" sqref="G277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="33.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="13.6640625" customWidth="1"/>
   </cols>
